--- a/TestData/Data.xlsx
+++ b/TestData/Data.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15D14D5-D55C-4198-BCCF-4C51107CD4F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Email</t>
   </si>
@@ -29,12 +30,24 @@
   <si>
     <t>Sample@1234</t>
   </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>TesterName</t>
+  </si>
+  <si>
+    <t>Democart</t>
+  </si>
+  <si>
+    <t>Deepika</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,6 +93,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -126,7 +147,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -158,9 +179,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -192,6 +231,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -367,29 +424,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4" ht="26" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -399,24 +468,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestData/Data.xlsx
+++ b/TestData/Data.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15D14D5-D55C-4198-BCCF-4C51107CD4F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF771FC3-D1A8-4C1F-A442-03422F91EDD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,37 +17,43 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>nagatraining@gmail.com</t>
-  </si>
-  <si>
-    <t>Sample@1234</t>
-  </si>
-  <si>
-    <t>Project</t>
-  </si>
-  <si>
-    <t>TesterName</t>
-  </si>
-  <si>
-    <t>Democart</t>
-  </si>
-  <si>
-    <t>Deepika</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>DCA@123</t>
+  </si>
+  <si>
+    <t>harikrishnapara123@gmail.com</t>
+  </si>
+  <si>
+    <t>karishmamohs10@gmail.com</t>
+  </si>
+  <si>
+    <t>KGD@123</t>
+  </si>
+  <si>
+    <t>greeshmamohs10@gmail.com</t>
+  </si>
+  <si>
+    <t>GKD@123</t>
+  </si>
+  <si>
+    <t>deepikamohs1@gmail.com</t>
+  </si>
+  <si>
+    <t>DKG@123</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,16 +69,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF242424"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -80,15 +106,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD1D1D1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD1D1D1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFD1D1D1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD1D1D1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -425,45 +477,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="32.453125" customWidth="1"/>
+    <col min="2" max="2" width="34.1796875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="4"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" tooltip="mailto:DCA@123" display="mailto:DCA@123" xr:uid="{E1497EB7-A3FE-4575-826F-5D1B222DD180}"/>
+    <hyperlink ref="B3" r:id="rId2" tooltip="mailto:KGD@123" display="mailto:KGD@123" xr:uid="{EE52046F-A824-427B-9981-C4ABA1A28A21}"/>
+    <hyperlink ref="B5" r:id="rId3" tooltip="mailto:DKG@123" display="mailto:DKG@123" xr:uid="{7F7A8179-95AE-4827-9F3A-2DF1DA521DE1}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
